--- a/config_multi.xls/klb_rule.xlsx
+++ b/config_multi.xls/klb_rule.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVNzhugan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="klb_rule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -25,69 +20,64 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="11"/>
             <rFont val="MS PGothic"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>默认排序ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="11"/>
             <rFont val="MS PGothic"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>游戏id</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="11"/>
             <rFont val="MS PGothic"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>游戏名</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="11"/>
             <rFont val="MS PGothic"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>游戏玩法</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <rFont val="MS PGothic"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">结算说明
@@ -95,28 +85,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="11"/>
             <rFont val="MS PGothic"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>最近更新（需要每次游戏更新的时候修改）</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -125,7 +113,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -138,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -398,19 +385,30 @@
     <t>和龙麻将一共有136张，其中万饼条各36张，东西南北白中发各4张。\n【胡牌条件】1）必须三色全，或者清一色和混一色\n2）不能缺幺九（由东南西北白中发组成的对子、叉、杠都算幺九）\n3）不能缺叉或者杠（单调中发白顶叉，手里一对中发白顶叉）\n4）必须报听，没开门的玩家报听称为扣听，扣听加番。开门后听牌，可换听，例如胡35胡4，上听后如摸到6，可打3，听47；扣听后不能换听\n5）在不勾选一炮多响的玩法下，一局只能有一位胡牌者，如有一人点炮两家以上胡牌，从点炮者逆时针方向，顺序前者胡（截胡）\n【庄家规则】\n1）坐庄：第一局系统选择房主为庄家，所有玩家按逆时针顺序轮流坐庄\n2）连庄：本局庄家胡牌或所有人都没有胡牌，则下一局庄家继续坐庄\n3）下庄：本局庄家以外胡牌，则下一局按逆时针方向，轮到本局庄家的下一家坐庄\n4）手牌：开局庄14，闲13\n【基本玩法】\n1）吃：上家打出的牌可以和自己手牌形成3张顺子牌时，即可以选择吃或不吃。\n2）叉：其他任意玩家打出的牌和自己手牌的对子形成刻子时，即可以选择叉或不叉。\n3）杠：四张相同的牌为杠。本家直接抓到四张杠下来的称为暗杠（暗杠必须先开门），其他通过吃进的杠牌为明杠。提杠：杠完后的摸牌，是从牌堆最后一张开始摸。\n4）补杠：先叉一副刻子牌，然后自己摸到一张与该刻牌相同的牌，即可补杠，同时收取其他所有玩家杠分。\n5）旋风杠：当手牌里有东西南北4张组合时，可以亮出个该杠为旋风杠。\n6）三剑客杠：当手牌里有中，发，白和中发白其中的任意一张，可以亮出杠为三剑客杠。(旋风杠和三剑客杠算暗杠）\n7）抢胡：当有玩家在补杠（当亮出一个叉，后来摸到这张牌，将叉补成杠）的情况下，有听牌玩家正好听此玩家杠的牌，则听牌玩家可以胡牌，且点炮玩家杠不成立。\n8）大杠：四个一万、一条，一饼、红中、发财，白板组成的杠为大杠。自己暗杠补杠和别人点杠形成的大杠算分一样。\n9）门清杠：暗杠时，若其他家没开门，此杠为门清杠。\n10）毛毛蛋杠：当手里有一万一筒幺鸡时，和一万一筒幺鸡中任意一张组合，可以亮出杠为毛毛蛋杠，算暗杠。\n11）混一色：由一种花色加上东西南北白中发（三剑客杠和旋风杠也算）其中任意牌型组成的的一副牌。（手里的中发白东南西北必须杠出）\n12）埋汰杠：上听之后，如果摸到的牌可以使手里的牌杠出，并且杠出后还是原先的听类型了，这时可以杠。\n13）黄庄：先取牌堆最后14张牌，该14张牌前4张用于分张（3人取3张），可摸的牌剩余122张牌，即摸122张牌后没有玩家胡牌，即开始分张，分张时仅可胡可杠。分张后没玩家胡牌，则为黄庄，胡分计0，杠分正常结算，庄家不变。黄庄后，下一局所有胡分X2 杠分X2。\n14）3人玩法：必须叉或明杠开门，胡牌时番数必须大于或等于2番，否则不能胡；3人结算，胡分减半，杠分减半。\n【结算算分】总分=杠分+胡分\n胡分计算\n底分为2分，点炮一对一，闲家输赢4分，庄输赢8分；自摸一对多，闲输赢2分，庄输赢4分。\n1）屁胡 正常胡两张，夹一张，单调都属于屁胡，底分X1\n2）飘胡/七小对/混一色，底分X2\n3）混一色飘胡/清一色/混一色七对/豪华七小对(七对中有四张一张的)，底分X4\n4）清一色飘胡/清一色七对/混一色豪七底分X8\n5）清一色豪七底分X16\n6）扣听：不开门听牌 番数X2\n7）庄：当庄后不管赢输都加倍，番数X2\n8）点炮：打出一张牌，有人胡牌这张牌（点炮者和胡牌者一对一结算胡分），加1番\n9）手把一：允许任意手把一，手里只剩一张牌并胡那一张牌，番数X2\n10）海底捞：最后分张的时候胡牌，番数X2\n11）杠上花：杠牌后摸一张牌即胡牌，番数X2\n12）杠后炮：在杠牌后摸一张牌再打一张牌，打出牌给别人点炮，胡分番数X2，如果是大杠番数X4\n13）抢杠胡：玩家补杠时，正好有上听者胡这张杠牌，则听牌者可胡，算补杠者点炮，点炮者杠不成立，抢杠胡胡分番数X2\n杠分计算\n1）点杠4分，一对一；明杠2分，暗杠4分，一对三家\n2）扣听：不开门听牌杠分X2\n3）庄：跟庄结算关系的杠分X2\n4）手把一：手把一时，杠分X2\n5）大杠：杠分X2\n6）门清杠：杠分X2\n7）杠后杠：杠牌后摸一张再打一张，打出的这张牌别人点杠了或这张牌自己又杠了，接下来的这个杠杠分X2，如果是大杠之后的杠，杠分X4\n8）海底杠：分张的时候可杠，此杠杠分X2\n9）听牌后杠分要随听牌牌型加番</t>
   </si>
   <si>
+    <t>百人二八杠</t>
+  </si>
+  <si>
     <t>【牌数】1-9饼、发财、红中、白板。\n【牌型及大小】天杠（二八筒）&gt;豹子（两张相同的牌）&gt;散牌（两张完全不同的牌）。\n【散牌大小】两张牌点数之和个位数部分比较。发财&gt;红中&gt;白板&gt;9点&gt;8点&gt;…0点。\n【没有点数的牌】均按照0点计算。\n【相同点数的牌】均按照最大散牌的大小进行比较。\n【相同牌型】按照最大散牌的大小进行比较。\n【庄闲牌完全相同】默认为庄家大。\n【上庄条件】携带高于3千万。\n【上庄携带】由玩家在上庄时自行设定，但不能低于3千万。\n【上座】座位为空时，持有达到10万金币及以上。座位上有人时，持有大于在坐玩家即可踢人并上座。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>百人二八杠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>21点</t>
+  </si>
+  <si>
+    <t>Rules\nThe rules of the Blackjack game are relatively easy to learn. Each player makes a bet that his hand would be better than the hand of the dealer.\n
+The object is very simple: to achieve a total that is greater than that of the dealer, and which does not exceed 21.\nThe secret is: to learn basic strategy for hitting, standing, doubling down, and splitting pairs.\nCards\nThe game should be played with a set of cards that contains 6 decks. Each deck should be a standard French pack (Spades, Hearts, Diamonds, Clubs) with 52 cards with each denomination assigned a point value.\nThe values of the cards:\n● Jack, Queen, King each counts as 10 points.\n● An Ace counts as 1 point or 11 points, whichever is better for owns of the hand.\n● The cards 2 through 10 are worth their face value.\nBlackjack is a combination of an Ace and any 10-points card.\nGameplay\nPlay begins when a player places a bet by stacking a chip or chips in the betting square on the table. After all bets have been placed, each player and the dealer are given two cards and all player cards are dealt face up. One of the dealer cards is dealt face up. The face down card is called the “hole card.” Play begins with the player to the dealer’s left.\nThe play actions available are as follows:\n– Stand: If a player stands, he elects to draw no more cards.\n– Hit: If a player hits, he draws another card or cards in hopes of getting closer to 21. If the player’s total exceeds 21 after hitting, known as “breaking” or “busting”, he loses the bet.\n– Double: If a player doubles his bet, he gets one, and only one, more card regardless of its denomination.\n– Split: If a player has two cards of the same denomination, then he may double his bet and separate his cards into two individual hands. The dealer will automatically give each card a second card. Then, the player may hit, stand, or double normally. However, when splitting aces, each ace gets only one card. Sometimes doubling after splitting is not allowed. If the player gets a ten and ace after splitting, then it counts as 21 points, not a blackjack. Usually the player may keep re-splitting up to a total of four hands. Sometimes re-splitting aces is not allowed.\nIf the dealer goes over 21 points, then any player who didn’t already bust will win. If the dealer does not bust, then the higher point total between the player and dealer will win.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -422,58 +420,383 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="MS PGothic"/>
-      <family val="2"/>
-      <charset val="128"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="MS PGothic"/>
-      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -481,9 +804,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -516,20 +1081,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -787,19 +1396,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="12.125" style="1"/>
     <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
@@ -837,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="192" customHeight="1">
+    <row r="2" ht="192" customHeight="1" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -858,7 +1467,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="183" customHeight="1">
+    <row r="3" ht="183" customHeight="1" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -879,7 +1488,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="183" customHeight="1">
+    <row r="4" ht="183" customHeight="1" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -900,7 +1509,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="165.95" customHeight="1">
+    <row r="5" ht="165.95" customHeight="1" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -924,7 +1533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="348">
+    <row r="6" ht="348" spans="1:8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -948,7 +1557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="137.25" customHeight="1">
+    <row r="7" ht="137.25" customHeight="1" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -971,7 +1580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="240">
+    <row r="8" ht="240" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -989,7 +1598,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="176.1" customHeight="1">
+    <row r="9" ht="176.1" customHeight="1" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1007,7 +1616,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="252">
+    <row r="10" ht="252" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1028,7 +1637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="42.95" customHeight="1">
+    <row r="11" ht="42.95" customHeight="1" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1048,7 +1657,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1">
+    <row r="12" ht="68.1" customHeight="1" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1065,7 +1674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42.95" customHeight="1">
+    <row r="13" ht="42.95" customHeight="1" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1082,7 +1691,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45.95" customHeight="1">
+    <row r="14" ht="45.95" customHeight="1" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1099,7 +1708,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="48" customHeight="1">
+    <row r="15" ht="48" customHeight="1" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1116,7 +1725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="48" customHeight="1">
+    <row r="16" ht="48" customHeight="1" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1133,7 +1742,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="96.95" customHeight="1">
+    <row r="17" ht="96.95" customHeight="1" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1153,7 +1762,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="56.1" customHeight="1">
+    <row r="18" ht="56.1" customHeight="1" spans="1:5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1170,7 +1779,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="51.95" customHeight="1">
+    <row r="19" ht="51.95" customHeight="1" spans="1:8">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1190,7 +1799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="168">
+    <row r="20" ht="168" spans="1:8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1210,7 +1819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="153.94999999999999" customHeight="1">
+    <row r="21" ht="153.95" customHeight="1" spans="1:5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1227,7 +1836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="96.95" customHeight="1">
+    <row r="22" ht="96.95" customHeight="1" spans="1:5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1244,7 +1853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="75" customHeight="1">
+    <row r="23" ht="75" customHeight="1" spans="1:5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1261,7 +1870,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="78" customHeight="1">
+    <row r="24" ht="78" customHeight="1" spans="1:5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1278,7 +1887,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="409.5">
+    <row r="25" ht="409.5" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1298,7 +1907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="80.099999999999994" customHeight="1">
+    <row r="26" ht="80.1" customHeight="1" spans="1:5">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1315,7 +1924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="101.1" customHeight="1">
+    <row r="27" ht="101.1" customHeight="1" spans="1:5">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1332,7 +1941,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="111" customHeight="1">
+    <row r="28" ht="111" customHeight="1" spans="1:5">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1349,7 +1958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="62.1" customHeight="1">
+    <row r="29" ht="62.1" customHeight="1" spans="1:5">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1366,7 +1975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="396">
+    <row r="30" ht="396" spans="1:5">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1383,7 +1992,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="54" customHeight="1">
+    <row r="31" ht="54" customHeight="1" spans="1:5">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1400,7 +2009,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="59.1" customHeight="1">
+    <row r="32" ht="59.1" customHeight="1" spans="1:5">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1417,7 +2026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="71.099999999999994" customHeight="1">
+    <row r="33" ht="71.1" customHeight="1" spans="1:5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1434,7 +2043,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="71.099999999999994" customHeight="1">
+    <row r="34" ht="71.1" customHeight="1" spans="1:5">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1451,7 +2060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="90" customHeight="1">
+    <row r="35" ht="90" customHeight="1" spans="1:5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1464,11 +2073,11 @@
       <c r="D35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="108">
+    <row r="36" ht="108" spans="1:5">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1479,16 +2088,33 @@
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>86</v>
+    </row>
+    <row r="37" ht="93" customHeight="1" spans="1:5">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>203</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config_multi.xls/klb_rule.xlsx
+++ b/config_multi.xls/klb_rule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="klb_rule" sheetId="1" r:id="rId1"/>
@@ -394,8 +394,7 @@
     <t>21点</t>
   </si>
   <si>
-    <t>Rules\nThe rules of the Blackjack game are relatively easy to learn. Each player makes a bet that his hand would be better than the hand of the dealer.\n
-The object is very simple: to achieve a total that is greater than that of the dealer, and which does not exceed 21.\nThe secret is: to learn basic strategy for hitting, standing, doubling down, and splitting pairs.\nCards\nThe game should be played with a set of cards that contains 6 decks. Each deck should be a standard French pack (Spades, Hearts, Diamonds, Clubs) with 52 cards with each denomination assigned a point value.\nThe values of the cards:\n● Jack, Queen, King each counts as 10 points.\n● An Ace counts as 1 point or 11 points, whichever is better for owns of the hand.\n● The cards 2 through 10 are worth their face value.\nBlackjack is a combination of an Ace and any 10-points card.\nGameplay\nPlay begins when a player places a bet by stacking a chip or chips in the betting square on the table. After all bets have been placed, each player and the dealer are given two cards and all player cards are dealt face up. One of the dealer cards is dealt face up. The face down card is called the “hole card.” Play begins with the player to the dealer’s left.\nThe play actions available are as follows:\n– Stand: If a player stands, he elects to draw no more cards.\n– Hit: If a player hits, he draws another card or cards in hopes of getting closer to 21. If the player’s total exceeds 21 after hitting, known as “breaking” or “busting”, he loses the bet.\n– Double: If a player doubles his bet, he gets one, and only one, more card regardless of its denomination.\n– Split: If a player has two cards of the same denomination, then he may double his bet and separate his cards into two individual hands. The dealer will automatically give each card a second card. Then, the player may hit, stand, or double normally. However, when splitting aces, each ace gets only one card. Sometimes doubling after splitting is not allowed. If the player gets a ten and ace after splitting, then it counts as 21 points, not a blackjack. Usually the player may keep re-splitting up to a total of four hands. Sometimes re-splitting aces is not allowed.\nIf the dealer goes over 21 points, then any player who didn’t already bust will win. If the dealer does not bust, then the higher point total between the player and dealer will win.</t>
+    <t>Rules\nThe rules of the Blackjack game are relatively easy to learn. Each player makes a bet that his hand would be better than the hand of the dealer.\nThe object is very simple: to achieve a total that is greater than that of the dealer, and which does not exceed 21.\nThe secret is: to learn basic strategy for hitting, standing, doubling down, and splitting pairs.\nCards\nThe game should be played with a set of cards that contains 6 decks. Each deck should be a standard French pack (Spades, Hearts, Diamonds, Clubs) with 52 cards with each denomination assigned a point value.\nThe values of the cards:\n● Jack, Queen, King each counts as 10 points.\n● An Ace counts as 1 point or 11 points, whichever is better for owns of the hand.\n● The cards 2 through 10 are worth their face value.\nBlackjack is a combination of an Ace and any 10-points card.\nGameplay\nPlay begins when a player places a bet by stacking a chip or chips in the betting square on the table. After all bets have been placed, each player and the dealer are given two cards and all player cards are dealt face up. One of the dealer cards is dealt face up. The face down card is called the “hole card.” Play begins with the player to the dealer’s left.\nThe play actions available are as follows:\n– Stand: If a player stands, he elects to draw no more cards.\n– Hit: If a player hits, he draws another card or cards in hopes of getting closer to 21. If the player’s total exceeds 21 after hitting, known as “breaking” or “busting”, he loses the bet.\n– Double: If a player doubles his bet, he gets one, and only one, more card regardless of its denomination.\n– Split: If a player has two cards of the same denomination, then he may double his bet and separate his cards into two individual hands. The dealer will automatically give each card a second card. Then, the player may hit, stand, or double normally. However, when splitting aces, each ace gets only one card. Sometimes doubling after splitting is not allowed. If the player gets a ten and ace after splitting, then it counts as 21 points, not a blackjack. Usually the player may keep re-splitting up to a total of four hands. Sometimes re-splitting aces is not allowed.\nIf the dealer goes over 21 points, then any player who didn’t already bust will win. If the dealer does not bust, then the higher point total between the player and dealer will win.</t>
   </si>
 </sst>
 </file>
@@ -403,8 +402,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -427,6 +426,127 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -438,135 +558,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,27 +572,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="MS PGothic"/>
       <charset val="128"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -611,61 +610,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,121 +778,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,6 +801,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -823,52 +837,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,6 +858,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -902,49 +892,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,100 +958,94 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1405,7 +1404,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="15.75" outlineLevelCol="7"/>
